--- a/June3PMSelenium/ExceltestData/testdata2.xlsx
+++ b/June3PMSelenium/ExceltestData/testdata2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Aborted</t>
   </si>
 </sst>
 </file>
@@ -108,17 +120,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Algerian"/>
-      <family val="5"/>
     </font>
     <font>
       <b/>
@@ -178,10 +188,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,16 +489,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -521,9 +531,11 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25">
+    <row r="3" spans="1:5" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -536,7 +548,9 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="19.5">
       <c r="A4" s="1" t="s">
@@ -551,7 +565,9 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="1" t="s">
@@ -563,10 +579,12 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
